--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -7,16 +7,16 @@
     <workbookView windowWidth="19770" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="创建公司测试数据" sheetId="1" r:id="rId1"/>
+    <sheet name="设置角色" sheetId="2" r:id="rId2"/>
+    <sheet name="登陆账号" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>账套名称</t>
   </si>
@@ -49,6 +49,72 @@
   </si>
   <si>
     <t>启用账套日期</t>
+  </si>
+  <si>
+    <t>羊羊羊</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>市辖区</t>
+  </si>
+  <si>
+    <t>海淀区</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12343532231</t>
+  </si>
+  <si>
+    <t>IT、信息、软件、技术服务</t>
+  </si>
+  <si>
+    <t>一般纳税人</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12343532232</t>
+  </si>
+  <si>
+    <t>批发、零售</t>
+  </si>
+  <si>
+    <t>小规模纳税人</t>
+  </si>
+  <si>
+    <t>客户联系人姓名</t>
+  </si>
+  <si>
+    <t>客户联系人手机号</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>助理</t>
+  </si>
+  <si>
+    <t>18514509382</t>
+  </si>
+  <si>
+    <t>杨春红</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>qq123456</t>
   </si>
 </sst>
 </file>
@@ -56,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,29 +144,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,9 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,7 +177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,32 +185,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,47 +222,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +283,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,31 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,151 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,19 +493,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -463,6 +537,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,192 +588,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,6 +746,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,21 +1099,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="28.375" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="2" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1151,85 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4:I58">
+      <formula1>"IT、信息、软件、技术服务,批发、零售,文化、体育、娱乐、培训,交通、运输、仓储、物流、快递,物业管理、居民服务、修理服务,租赁服务,制造业,建筑业,农、林、牧、渔,社团、社保、公共组织,卫生和社会工作,学历教育,房地产,电力、热力、燃气、水生产供应,水利、环境和公共设施,采矿业,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3 J4:J61">
+      <formula1>"小规模纳税人,一般纳税人"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1096,14 +1239,46 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1113,14 +1288,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.625"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建公司测试数据" sheetId="1" r:id="rId1"/>
     <sheet name="设置角色" sheetId="2" r:id="rId2"/>
     <sheet name="登陆账号" sheetId="3" r:id="rId3"/>
+    <sheet name="创建账户" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>账套名称</t>
   </si>
@@ -105,7 +106,7 @@
     <t>18514509382</t>
   </si>
   <si>
-    <t>杨春红</t>
+    <t>yang</t>
   </si>
   <si>
     <t>用户名</t>
@@ -115,6 +116,30 @@
   </si>
   <si>
     <t>qq123456</t>
+  </si>
+  <si>
+    <t>账户类型</t>
+  </si>
+  <si>
+    <t>账户名称</t>
+  </si>
+  <si>
+    <t>添加银行账户</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>添加微信</t>
+  </si>
+  <si>
+    <t>羊羊羊微信</t>
+  </si>
+  <si>
+    <t>添加支付宝</t>
+  </si>
+  <si>
+    <t>羊羊羊支付宝</t>
   </si>
 </sst>
 </file>
@@ -122,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,17 +169,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +207,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -175,32 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,74 +306,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,49 +322,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,133 +484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,17 +513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,17 +540,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,23 +581,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -596,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,141 +633,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1101,7 +1123,7 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1116,38 +1138,38 @@
     <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1158,7 +1180,7 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
@@ -1170,10 +1192,10 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
@@ -1182,7 +1204,7 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1193,7 +1215,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -1205,10 +1227,10 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1217,7 +1239,7 @@
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1241,8 +1263,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1251,16 +1273,16 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1268,7 +1290,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
@@ -1301,15 +1323,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
@@ -1322,4 +1344,62 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A44">
+      <formula1>"添加银行账户,添加微信,添加支付宝"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建公司测试数据" sheetId="1" r:id="rId1"/>
@@ -147,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,30 +170,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,91 +260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +283,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,13 +322,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,13 +430,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,139 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +513,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,8 +548,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,34 +575,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1263,7 +1263,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1351,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" activeTab="3"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建公司测试数据" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>账套名称</t>
   </si>
@@ -106,7 +106,16 @@
     <t>18514509382</t>
   </si>
   <si>
+    <t>杨春红</t>
+  </si>
+  <si>
     <t>yang</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>dev</t>
   </si>
   <si>
     <t>用户名</t>
@@ -148,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,6 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,46 +194,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,83 +291,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,31 +331,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,139 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,21 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,11 +542,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +605,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -589,30 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -621,145 +630,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,7 +1133,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1261,13 +1270,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="17.375" customWidth="1"/>
   </cols>
@@ -1298,6 +1307,40 @@
       </c>
       <c r="D2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1356,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1324,10 +1367,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1335,7 +1378,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -1351,7 +1394,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1363,34 +1406,34 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -12,7 +12,7 @@
     <sheet name="登陆账号" sheetId="3" r:id="rId3"/>
     <sheet name="创建账户" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -106,13 +106,13 @@
     <t>18514509382</t>
   </si>
   <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
     <t>杨春红</t>
-  </si>
-  <si>
-    <t>yang</t>
-  </si>
-  <si>
-    <t>pro</t>
   </si>
   <si>
     <t>dev</t>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1309,21 +1309,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1334,10 +1322,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>

--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建公司测试数据" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>账套名称</t>
   </si>
@@ -79,16 +79,19 @@
     <t>一般纳税人</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12343532232</t>
+  </si>
+  <si>
+    <t>批发、零售</t>
+  </si>
+  <si>
+    <t>小规模纳税人</t>
+  </si>
+  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>12343532232</t>
-  </si>
-  <si>
-    <t>批发、零售</t>
-  </si>
-  <si>
-    <t>小规模纳税人</t>
   </si>
   <si>
     <t>客户联系人姓名</t>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,8 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,14 +213,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +265,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,46 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,30 +297,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,12 +334,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,55 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,109 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,17 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +561,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -569,21 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,15 +625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,7 +636,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,19 +645,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,112 +666,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1249,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1283,16 +1286,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1300,18 +1303,30 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1319,16 +1334,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1355,18 +1370,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -1394,34 +1409,34 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/创建公司.xlsx
+++ b/test_data/创建公司.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建公司测试数据" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>账套名称</t>
   </si>
@@ -106,9 +106,6 @@
     <t>助理</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>15636017838</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>密码</t>
-  </si>
-  <si>
-    <t>Livewell1</t>
   </si>
   <si>
     <t>qq123456</t>
@@ -172,9 +166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,6 +187,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -201,13 +196,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -217,9 +219,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,104 +330,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,31 +346,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,25 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,109 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +531,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,39 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,11 +577,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +607,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1310,18 +1304,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1329,16 +1320,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1346,16 +1337,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1370,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1382,26 +1373,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -1429,34 +1420,34 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
